--- a/data/tab1.xlsx
+++ b/data/tab1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R project\qc_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75965945-F206-4032-A1F5-4D2E2078383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD6145A-83BE-4174-84BE-1AE3B98902C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CB15225-825C-47AD-8C96-E7C0532B41F7}"/>
   </bookViews>
@@ -1547,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EB42DF-906C-4ACD-826E-CA93D9566186}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
